--- a/src/main/resources/产值统计dwd.xlsx
+++ b/src/main/resources/产值统计dwd.xlsx
@@ -298,12 +298,6 @@
     <t>部门id</t>
   </si>
   <si>
-    <t>depart_id</t>
-  </si>
-  <si>
-    <t>dept_deptid</t>
-  </si>
-  <si>
     <t>部门名称</t>
   </si>
   <si>
@@ -513,47 +507,55 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>ht_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键关联：所有合同【dim_all_contract】</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidiary_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidiary_code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidiary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate_code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmssgs_deptid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_deptid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>xmcode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ht_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键关联：所有合同【dim_all_contract】</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>subsidiary_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>subsidiary_code</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>subsidiary</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>corporate_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>corporate_code</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>corporate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmssgs_deptid</t>
+    <t>depart_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,15 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -845,6 +838,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,28 +1136,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="8" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="8" width="42.625" customWidth="1"/>
     <col min="9" max="9" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25">
-      <c r="A1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="31.5">
       <c r="A2" s="1" t="s">
@@ -1174,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25">
@@ -1203,8 +1212,8 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>160</v>
+      <c r="I3" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25">
@@ -1230,7 +1239,7 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="17.25">
       <c r="A5" s="3">
@@ -1255,7 +1264,7 @@
       <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="17.25">
       <c r="A6" s="3">
@@ -1280,7 +1289,7 @@
       <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="17.25">
       <c r="A7" s="3">
@@ -1303,9 +1312,9 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="17.25">
       <c r="A8" s="3">
@@ -1330,7 +1339,7 @@
       <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="3">
@@ -1340,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -1352,12 +1361,12 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="34.5">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1380,7 +1389,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="17.25">
       <c r="A11" s="3">
@@ -1390,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -1405,7 +1414,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="17.25">
       <c r="A12" s="3">
@@ -1415,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1430,9 +1439,9 @@
         <v>31</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="34.5">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -1455,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="3">
@@ -1465,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -1480,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="17.25">
       <c r="A15" s="3">
@@ -1505,7 +1514,7 @@
       <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="17.25">
       <c r="A16" s="3">
@@ -1515,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -1527,14 +1536,14 @@
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="172.5">
+        <v>160</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="51.75">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1554,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="17.25">
       <c r="A18" s="3">
@@ -1582,7 +1591,7 @@
       <c r="H18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="17.25">
       <c r="A19" s="3">
@@ -1607,7 +1616,7 @@
       <c r="H19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="17.25">
       <c r="A20" s="3">
@@ -1632,8 +1641,8 @@
       <c r="H20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>161</v>
+      <c r="I20" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17.25">
@@ -1659,7 +1668,7 @@
       <c r="H21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="17.25">
       <c r="A22" s="3">
@@ -1684,7 +1693,7 @@
       <c r="H22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="17.25">
       <c r="A23" s="3">
@@ -1709,7 +1718,7 @@
       <c r="H23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="17.25">
       <c r="A24" s="3">
@@ -1734,7 +1743,7 @@
       <c r="H24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="17.25">
       <c r="A25" s="3">
@@ -1758,14 +1767,12 @@
       <c r="G25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="172.5">
+      <c r="H25" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9" ht="51.75">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>66</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="17.25">
       <c r="A27" s="3">
@@ -1813,8 +1820,8 @@
       <c r="H27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>152</v>
+      <c r="I27" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25">
@@ -1840,7 +1847,7 @@
       <c r="H28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="17.25">
       <c r="A29" s="3">
@@ -1865,7 +1872,7 @@
       <c r="H29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="17.25">
       <c r="A30" s="3">
@@ -1890,7 +1897,7 @@
       <c r="H30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="17.25">
       <c r="A31" s="3">
@@ -1915,7 +1922,7 @@
       <c r="H31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="17.25">
       <c r="A32" s="3">
@@ -1940,7 +1947,7 @@
       <c r="H32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="17.25">
       <c r="A33" s="3">
@@ -1965,7 +1972,7 @@
       <c r="H33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="17.25">
       <c r="A34" s="3">
@@ -1990,7 +1997,7 @@
       <c r="H34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
       <c r="A35" s="3">
@@ -2000,7 +2007,7 @@
         <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -2014,20 +2021,22 @@
       <c r="G35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:9" ht="172.5">
+      <c r="H35" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51.75">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>9</v>
@@ -2042,19 +2051,19 @@
         <v>66</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="17.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -2067,19 +2076,19 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="17"/>
+        <v>97</v>
+      </c>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="17.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
@@ -2092,19 +2101,19 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="17.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -2117,19 +2126,19 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="17.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -2142,19 +2151,19 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="17"/>
+        <v>106</v>
+      </c>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="17.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -2167,19 +2176,19 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="17.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -2192,19 +2201,19 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="17.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -2217,19 +2226,19 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="17.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
@@ -2242,19 +2251,19 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="17.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -2267,19 +2276,19 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" ht="17.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -2292,19 +2301,19 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="17.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -2317,19 +2326,19 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" ht="17.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -2340,21 +2349,21 @@
       <c r="F48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>153</v>
+      <c r="G48" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="17.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -2365,21 +2374,21 @@
       <c r="F49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>154</v>
+      <c r="G49" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="H49" s="4"/>
-      <c r="I49" s="17"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="17.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>9</v>
@@ -2390,21 +2399,21 @@
       <c r="F50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="22" t="s">
-        <v>135</v>
+      <c r="G50" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="17"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="17.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>9</v>
@@ -2415,21 +2424,21 @@
       <c r="F51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>155</v>
+      <c r="G51" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="17"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" ht="17.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>9</v>
@@ -2441,20 +2450,20 @@
         <v>10</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="17"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="17.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>9</v>
@@ -2465,21 +2474,21 @@
       <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>157</v>
+      <c r="G53" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="H53" s="4"/>
-      <c r="I53" s="17"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="17.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>9</v>
@@ -2492,17 +2501,17 @@
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="17"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" ht="17.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
@@ -2515,17 +2524,17 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="17"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" ht="17.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>9</v>
@@ -2538,17 +2547,17 @@
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="17"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="17.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -2561,7 +2570,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="23"/>
+      <c r="I57" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
